--- a/testing/Bet_Tracker.xlsx
+++ b/testing/Bet_Tracker.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$K$1:$K$974</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$K$1:$K$973</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Cqmnl/S4bKwwLh+FzvJByzh/A+DhGvnG4qruRcu1cfE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="wx7SIV2+c12e7QDZtedlnI1Yx0uIo9d9C6AGhOa9/1I="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="294">
   <si>
     <t>Date</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Southern Miss Moneyline Southern Miss @ Georgia State</t>
   </si>
   <si>
-    <t>ncaam</t>
-  </si>
-  <si>
     <t>UNC Wilmington Moneyline UNC Wilmington @ William &amp; Mary</t>
   </si>
   <si>
@@ -864,6 +861,45 @@
   </si>
   <si>
     <t>Stanford @ Miami FL - Over 146.5 - Total Alternate - NCAAB</t>
+  </si>
+  <si>
+    <t>TOR Maple Leafs @ SEA Kraken - Under 6.5 - Total</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Montana @ Portland State - Over 143.5 - Total</t>
+  </si>
+  <si>
+    <t>Eastern Washington @ Northern Arizona - Over 145.5 - Total Alternate - NCAAB</t>
+  </si>
+  <si>
+    <t>Oral Roberts @ South Dakota - Over 153.5 - Total Alternate - NCAAB</t>
+  </si>
+  <si>
+    <t>WAS Capitals @ DET Red Wings - Under 6.5 - Total</t>
+  </si>
+  <si>
+    <t>Lipscomb @ Jacksonville - Over 143.5 - Total Alternate - NCAAB</t>
+  </si>
+  <si>
+    <t>MIL Bucks @ WAS Wizards - Over 222.5 - Total</t>
+  </si>
+  <si>
+    <t>BKN Nets @ DEN Nuggets - Over 209.5 - Total</t>
+  </si>
+  <si>
+    <t>NY Rangers</t>
+  </si>
+  <si>
+    <t>LA Kings</t>
+  </si>
+  <si>
+    <t>WAS Capitals</t>
+  </si>
+  <si>
+    <t>VAN Canucks</t>
   </si>
 </sst>
 </file>
@@ -932,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -947,6 +983,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
@@ -968,6 +1007,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5549,8 +5591,8 @@
       <c r="J87" s="3">
         <v>-0.1</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>102</v>
+      <c r="K87" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -5573,7 +5615,7 @@
         <v>46044.0</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C88" s="4">
         <v>0.54</v>
@@ -5599,8 +5641,8 @@
       <c r="J88" s="3">
         <v>-0.1</v>
       </c>
-      <c r="K88" s="3" t="s">
-        <v>102</v>
+      <c r="K88" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -5623,7 +5665,7 @@
         <v>46044.0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="4">
         <v>0.385</v>
@@ -5673,7 +5715,7 @@
         <v>46044.0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" s="4">
         <v>0.265</v>
@@ -5723,7 +5765,7 @@
         <v>46044.0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C91" s="4">
         <v>0.578</v>
@@ -5773,7 +5815,7 @@
         <v>46044.0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="4">
         <v>0.612</v>
@@ -5823,7 +5865,7 @@
         <v>46044.0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="4">
         <v>0.562</v>
@@ -5873,7 +5915,7 @@
         <v>46044.0</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="4">
         <v>0.46</v>
@@ -5923,12 +5965,12 @@
         <v>46044.0</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="5">
+        <v>109</v>
+      </c>
+      <c r="C95" s="6">
         <v>0.362</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="6">
         <v>215.0</v>
       </c>
       <c r="E95" s="3">
@@ -5973,7 +6015,7 @@
         <v>46044.0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" s="4">
         <v>0.5979</v>
@@ -6023,7 +6065,7 @@
         <v>46044.0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C97" s="4">
         <v>0.6144</v>
@@ -6073,7 +6115,7 @@
         <v>46045.0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" s="3">
         <v>0.5716</v>
@@ -6091,17 +6133,17 @@
       <c r="G98" s="3">
         <v>0.1</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="7">
         <v>0.21</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="7">
         <f t="shared" ref="J98:J115" si="4">I98-G98</f>
         <v>0.11</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L98" s="1"/>
@@ -6143,17 +6185,17 @@
       <c r="G99" s="3">
         <v>0.1</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="7">
         <v>0.12</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="7">
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K99" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L99" s="1"/>
@@ -6177,7 +6219,7 @@
         <v>46045.0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" s="3">
         <v>0.416</v>
@@ -6195,17 +6237,17 @@
       <c r="G100" s="3">
         <v>0.1</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I100" s="1">
         <v>0.0</v>
       </c>
-      <c r="J100" s="6">
+      <c r="J100" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K100" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L100" s="1"/>
@@ -6228,16 +6270,16 @@
       <c r="A101" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" s="6">
+      <c r="B101" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="7">
         <v>0.5412</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="7">
         <v>112.0</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="7">
         <v>-115.0</v>
       </c>
       <c r="F101" s="1">
@@ -6247,18 +6289,18 @@
       <c r="G101" s="3">
         <v>0.1</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I101" s="7">
         <v>0.18</v>
       </c>
-      <c r="J101" s="6">
+      <c r="J101" s="7">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="K101" s="6" t="s">
-        <v>116</v>
+      <c r="K101" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -6280,16 +6322,16 @@
       <c r="A102" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="6">
+      <c r="B102" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="7">
         <v>0.5471</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="7">
         <v>110.0</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="7">
         <v>-105.0</v>
       </c>
       <c r="F102" s="1">
@@ -6299,18 +6341,18 @@
       <c r="G102" s="3">
         <v>0.1</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H102" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="7">
         <v>0.0</v>
       </c>
-      <c r="J102" s="6">
+      <c r="J102" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K102" s="6" t="s">
-        <v>116</v>
+      <c r="K102" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -6332,16 +6374,16 @@
       <c r="A103" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" s="6">
+      <c r="B103" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="7">
         <v>0.5268</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="7">
         <v>119.0</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="7">
         <v>-110.0</v>
       </c>
       <c r="F103" s="1">
@@ -6351,18 +6393,18 @@
       <c r="G103" s="3">
         <v>0.1</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I103" s="6">
+      <c r="I103" s="7">
         <v>0.0</v>
       </c>
-      <c r="J103" s="6">
+      <c r="J103" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K103" s="6" t="s">
-        <v>116</v>
+      <c r="K103" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -6384,16 +6426,16 @@
       <c r="A104" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="6">
+      <c r="B104" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="7">
         <v>0.5205</v>
       </c>
       <c r="D104" s="1">
         <v>122.0</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="7">
         <v>-115.0</v>
       </c>
       <c r="F104" s="1">
@@ -6403,18 +6445,18 @@
       <c r="G104" s="3">
         <v>0.1</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="8">
         <v>0.0</v>
       </c>
-      <c r="J104" s="6">
+      <c r="J104" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K104" s="6" t="s">
-        <v>116</v>
+      <c r="K104" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -6436,16 +6478,16 @@
       <c r="A105" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="7">
         <v>0.535</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="7">
         <v>115.0</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="7">
         <v>-110.0</v>
       </c>
       <c r="F105" s="1">
@@ -6455,18 +6497,18 @@
       <c r="G105" s="3">
         <v>0.1</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="H105" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105" s="7">
         <v>0.0</v>
       </c>
-      <c r="J105" s="6">
+      <c r="J105" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K105" s="6" t="s">
-        <v>116</v>
+      <c r="K105" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -6488,16 +6530,16 @@
       <c r="A106" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C106" s="6">
+      <c r="B106" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="7">
         <v>0.6391</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="7">
         <v>-132.0</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="7">
         <v>-105.0</v>
       </c>
       <c r="F106" s="1">
@@ -6507,18 +6549,18 @@
       <c r="G106" s="3">
         <v>0.1</v>
       </c>
-      <c r="H106" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I106" s="6">
+      <c r="H106" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I106" s="7">
         <v>0.19</v>
       </c>
-      <c r="J106" s="6">
+      <c r="J106" s="7">
         <f t="shared" si="4"/>
         <v>0.09</v>
       </c>
-      <c r="K106" s="6" t="s">
-        <v>116</v>
+      <c r="K106" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -6540,16 +6582,16 @@
       <c r="A107" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="6">
+      <c r="B107" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="7">
         <v>0.5518</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="7">
         <v>108.0</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="7">
         <v>-110.0</v>
       </c>
       <c r="F107" s="1">
@@ -6559,18 +6601,18 @@
       <c r="G107" s="3">
         <v>0.1</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H107" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107" s="8">
         <v>0.0</v>
       </c>
-      <c r="J107" s="6">
+      <c r="J107" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K107" s="6" t="s">
-        <v>116</v>
+      <c r="K107" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -6592,16 +6634,16 @@
       <c r="A108" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="6">
+      <c r="B108" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="7">
         <v>0.5294</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="7">
         <v>118.0</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="7">
         <v>-110.0</v>
       </c>
       <c r="F108" s="1">
@@ -6611,18 +6653,18 @@
       <c r="G108" s="3">
         <v>0.1</v>
       </c>
-      <c r="H108" s="6" t="s">
+      <c r="H108" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="7">
         <v>0.0</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J108" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K108" s="6" t="s">
-        <v>116</v>
+      <c r="K108" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -6644,16 +6686,16 @@
       <c r="A109" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="6">
+      <c r="B109" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="7">
         <v>0.56</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="7">
         <v>-103.0</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="7">
         <v>102.0</v>
       </c>
       <c r="F109" s="1">
@@ -6663,18 +6705,18 @@
       <c r="G109" s="3">
         <v>0.1</v>
       </c>
-      <c r="H109" s="6" t="s">
+      <c r="H109" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109" s="7">
         <v>0.2</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J109" s="7">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="K109" s="6" t="s">
-        <v>125</v>
+      <c r="K109" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -6696,16 +6738,16 @@
       <c r="A110" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="6">
+      <c r="B110" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="7">
         <v>0.49</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="7">
         <v>146.0</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="7">
         <v>102.0</v>
       </c>
       <c r="F110" s="1">
@@ -6715,18 +6757,18 @@
       <c r="G110" s="3">
         <v>0.1</v>
       </c>
-      <c r="H110" s="6" t="s">
+      <c r="H110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I110" s="7">
         <v>0.2</v>
       </c>
-      <c r="J110" s="6">
+      <c r="J110" s="7">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="K110" s="6" t="s">
-        <v>125</v>
+      <c r="K110" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -6748,16 +6790,16 @@
       <c r="A111" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="6">
+      <c r="B111" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="7">
         <v>0.5163</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="7">
         <v>124.0</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="7">
         <v>-112.0</v>
       </c>
       <c r="F111" s="1">
@@ -6767,18 +6809,18 @@
       <c r="G111" s="3">
         <v>0.1</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H111" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I111" s="1">
         <v>0.0</v>
       </c>
-      <c r="J111" s="6">
+      <c r="J111" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K111" s="6" t="s">
-        <v>116</v>
+      <c r="K111" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -6800,16 +6842,16 @@
       <c r="A112" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="8">
+      <c r="B112" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="9">
         <v>0.6143</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="9">
         <v>-124.0</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="7">
         <v>-122.0</v>
       </c>
       <c r="F112" s="1">
@@ -6822,14 +6864,14 @@
       <c r="H112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112" s="7">
         <v>0.0</v>
       </c>
-      <c r="J112" s="6">
+      <c r="J112" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K112" s="6" t="s">
+      <c r="K112" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L112" s="1"/>
@@ -6852,16 +6894,16 @@
       <c r="A113" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C113" s="8">
+      <c r="B113" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="9">
         <v>0.5935</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="9">
         <v>-114.0</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="7">
         <v>114.0</v>
       </c>
       <c r="F113" s="1">
@@ -6874,14 +6916,14 @@
       <c r="H113" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="7">
         <v>0.21</v>
       </c>
-      <c r="J113" s="6">
+      <c r="J113" s="7">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="K113" s="6" t="s">
+      <c r="K113" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L113" s="1"/>
@@ -6904,16 +6946,16 @@
       <c r="A114" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="9">
         <v>0.5951</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="9">
         <v>-115.0</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="7">
         <v>-110.0</v>
       </c>
       <c r="F114" s="1">
@@ -6926,14 +6968,14 @@
       <c r="H114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="7">
         <v>0.0</v>
       </c>
-      <c r="J114" s="6">
+      <c r="J114" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K114" s="6" t="s">
+      <c r="K114" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L114" s="1"/>
@@ -6956,13 +6998,13 @@
       <c r="A115" s="2">
         <v>46045.0</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C115" s="9">
+      <c r="B115" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="10">
         <v>0.437</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="10">
         <v>179.0</v>
       </c>
       <c r="E115" s="1">
@@ -6981,11 +7023,11 @@
       <c r="I115" s="1">
         <v>0.0</v>
       </c>
-      <c r="J115" s="6">
+      <c r="J115" s="7">
         <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
-      <c r="K115" s="6" t="s">
+      <c r="K115" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L115" s="1"/>
@@ -7009,7 +7051,7 @@
         <v>46046.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="1">
         <v>0.5</v>
@@ -7059,7 +7101,7 @@
         <v>46046.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="1">
         <v>0.6209</v>
@@ -7086,7 +7128,7 @@
         <v>0.09</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -7109,7 +7151,7 @@
         <v>46046.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C118" s="1">
         <v>0.5817</v>
@@ -7136,7 +7178,7 @@
         <v>-0.1</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -7159,7 +7201,7 @@
         <v>46046.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" s="1">
         <v>0.63</v>
@@ -7209,7 +7251,7 @@
         <v>46046.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="1">
         <v>0.5324</v>
@@ -7236,7 +7278,7 @@
         <v>-0.1</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -7259,7 +7301,7 @@
         <v>46046.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="1">
         <v>0.51</v>
@@ -7309,7 +7351,7 @@
         <v>46046.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C122" s="1">
         <v>0.6053</v>
@@ -7336,7 +7378,7 @@
         <v>-0.1</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -7359,7 +7401,7 @@
         <v>46046.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C123" s="1">
         <v>0.7037</v>
@@ -7386,7 +7428,7 @@
         <v>-0.1</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -7409,7 +7451,7 @@
         <v>46046.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C124" s="1">
         <v>0.5913</v>
@@ -7436,7 +7478,7 @@
         <v>0.09</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -7459,7 +7501,7 @@
         <v>46046.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C125" s="1">
         <v>0.6352</v>
@@ -7509,7 +7551,7 @@
         <v>46046.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C126" s="1">
         <v>0.5678</v>
@@ -7559,7 +7601,7 @@
         <v>46046.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C127" s="1">
         <v>0.427</v>
@@ -7609,7 +7651,7 @@
         <v>46046.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="1">
         <v>0.469</v>
@@ -7659,7 +7701,7 @@
         <v>46046.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" s="1">
         <v>0.5936</v>
@@ -7686,7 +7728,7 @@
         <v>-0.1</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -7709,7 +7751,7 @@
         <v>46046.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130" s="1">
         <v>0.58</v>
@@ -7759,7 +7801,7 @@
         <v>46046.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C131" s="1">
         <v>0.55</v>
@@ -7809,7 +7851,7 @@
         <v>46046.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" s="1">
         <v>0.69</v>
@@ -7859,7 +7901,7 @@
         <v>46046.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133" s="1">
         <v>0.5854</v>
@@ -7886,7 +7928,7 @@
         <v>0.08</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
@@ -7909,7 +7951,7 @@
         <v>46046.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" s="1">
         <v>0.6012</v>
@@ -7936,7 +7978,7 @@
         <v>-0.1</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -7959,7 +8001,7 @@
         <v>46046.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C135" s="1">
         <v>0.5885</v>
@@ -7986,7 +8028,7 @@
         <v>0.09</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -8009,7 +8051,7 @@
         <v>46046.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C136" s="1">
         <v>0.52</v>
@@ -8059,7 +8101,7 @@
         <v>46046.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" s="1">
         <v>0.5982</v>
@@ -8086,7 +8128,7 @@
         <v>-0.1</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -8109,7 +8151,7 @@
         <v>46046.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138" s="1">
         <v>0.608</v>
@@ -8136,7 +8178,7 @@
         <v>0.09</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -8159,7 +8201,7 @@
         <v>46046.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C139" s="1">
         <v>0.509</v>
@@ -8209,7 +8251,7 @@
         <v>46046.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C140" s="1">
         <v>0.7238</v>
@@ -8259,7 +8301,7 @@
         <v>46046.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C141" s="1">
         <v>0.821</v>
@@ -8309,7 +8351,7 @@
         <v>46046.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" s="1">
         <v>0.571</v>
@@ -8359,7 +8401,7 @@
         <v>46046.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" s="1">
         <v>0.466</v>
@@ -8409,7 +8451,7 @@
         <v>46047.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C144" s="1">
         <v>0.469</v>
@@ -8459,7 +8501,7 @@
         <v>46047.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C145" s="1">
         <v>0.6074</v>
@@ -8486,7 +8528,7 @@
         <v>0.09</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -8509,7 +8551,7 @@
         <v>46047.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" s="1">
         <v>0.6156</v>
@@ -8536,7 +8578,7 @@
         <v>-0.1</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -8559,7 +8601,7 @@
         <v>46047.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C147" s="1">
         <v>0.7604</v>
@@ -8586,7 +8628,7 @@
         <v>-0.1</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -8609,7 +8651,7 @@
         <v>46047.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" s="1">
         <v>0.5903</v>
@@ -8659,7 +8701,7 @@
         <v>46047.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C149" s="1">
         <v>0.525</v>
@@ -8709,7 +8751,7 @@
         <v>46047.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" s="1">
         <v>0.4763</v>
@@ -8759,7 +8801,7 @@
         <v>46047.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C151" s="1">
         <v>0.496</v>
@@ -8809,7 +8851,7 @@
         <v>46047.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" s="1">
         <v>0.419</v>
@@ -8859,7 +8901,7 @@
         <v>46047.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C153" s="1">
         <v>0.375</v>
@@ -8909,7 +8951,7 @@
         <v>46048.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" s="1">
         <v>0.519</v>
@@ -8959,7 +9001,7 @@
         <v>46048.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C155" s="1">
         <v>0.5475</v>
@@ -9009,7 +9051,7 @@
         <v>46048.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C156" s="1">
         <v>0.7506</v>
@@ -9036,7 +9078,7 @@
         <v>-0.1</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -9059,7 +9101,7 @@
         <v>46048.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C157" s="1">
         <v>0.6308</v>
@@ -9086,7 +9128,7 @@
         <v>0.08</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
@@ -9109,7 +9151,7 @@
         <v>46048.0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C158" s="1">
         <v>0.612</v>
@@ -9136,7 +9178,7 @@
         <v>0.09</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
@@ -9159,7 +9201,7 @@
         <v>46048.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C159" s="1">
         <v>0.632</v>
@@ -9209,7 +9251,7 @@
         <v>46048.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C160" s="1">
         <v>0.6336</v>
@@ -9259,7 +9301,7 @@
         <v>46048.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" s="1">
         <v>0.5526</v>
@@ -9286,7 +9328,7 @@
         <v>-0.1</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
@@ -9309,7 +9351,7 @@
         <v>46049.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C162" s="1">
         <v>0.396</v>
@@ -9359,7 +9401,7 @@
         <v>46049.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C163" s="1">
         <v>0.417</v>
@@ -9409,7 +9451,7 @@
         <v>46049.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C164" s="1">
         <v>0.514</v>
@@ -9459,7 +9501,7 @@
         <v>46049.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C165" s="1">
         <v>0.531</v>
@@ -9509,7 +9551,7 @@
         <v>46049.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C166" s="1">
         <v>0.492</v>
@@ -9559,7 +9601,7 @@
         <v>46049.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C167" s="1">
         <v>0.575</v>
@@ -9609,7 +9651,7 @@
         <v>46049.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C168" s="1">
         <v>0.6573</v>
@@ -9636,7 +9678,7 @@
         <v>0.09</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
@@ -9659,7 +9701,7 @@
         <v>46049.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C169" s="1">
         <v>0.7458</v>
@@ -9686,7 +9728,7 @@
         <v>-0.1</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
@@ -9709,7 +9751,7 @@
         <v>46049.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C170" s="1">
         <v>0.6487</v>
@@ -9736,7 +9778,7 @@
         <v>-0.1</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
@@ -9759,7 +9801,7 @@
         <v>46049.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C171" s="1">
         <v>0.8341</v>
@@ -9786,7 +9828,7 @@
         <v>0.1</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
@@ -9809,7 +9851,7 @@
         <v>46049.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C172" s="1">
         <v>0.8318</v>
@@ -9836,7 +9878,7 @@
         <v>-0.1</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
@@ -9859,7 +9901,7 @@
         <v>46049.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C173" s="1">
         <v>0.6198</v>
@@ -9886,7 +9928,7 @@
         <v>-0.1</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
@@ -9909,7 +9951,7 @@
         <v>46049.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C174" s="1">
         <v>0.7954</v>
@@ -9936,7 +9978,7 @@
         <v>0.07</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
@@ -9959,7 +10001,7 @@
         <v>46049.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C175" s="1">
         <v>0.6336</v>
@@ -9986,7 +10028,7 @@
         <v>0.08</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
@@ -10009,7 +10051,7 @@
         <v>46049.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C176" s="1">
         <v>0.7367</v>
@@ -10036,7 +10078,7 @@
         <v>0.08</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -10059,7 +10101,7 @@
         <v>46049.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C177" s="1">
         <v>0.6137</v>
@@ -10086,7 +10128,7 @@
         <v>0.08</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -10109,7 +10151,7 @@
         <v>46049.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C178" s="1">
         <v>0.7199</v>
@@ -10136,7 +10178,7 @@
         <v>0.08</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
@@ -10159,7 +10201,7 @@
         <v>46049.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C179" s="1">
         <v>0.6678</v>
@@ -10186,7 +10228,7 @@
         <v>0.06</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
@@ -10209,7 +10251,7 @@
         <v>46049.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C180" s="1">
         <v>0.5594</v>
@@ -10236,7 +10278,7 @@
         <v>0.09</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
@@ -10259,7 +10301,7 @@
         <v>46049.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C181" s="1">
         <v>0.51</v>
@@ -10309,20 +10351,11 @@
         <v>46049.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C182" s="1">
-        <v>0.416</v>
-      </c>
-      <c r="D182" s="1">
-        <v>173.0</v>
+        <v>197</v>
       </c>
       <c r="E182" s="1">
         <v>201.0</v>
       </c>
-      <c r="F182" s="1">
-        <v>28.0</v>
-      </c>
       <c r="G182" s="1">
         <v>0.1</v>
       </c>
@@ -10336,7 +10369,7 @@
         <v>-0.1</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
@@ -10359,19 +10392,10 @@
         <v>46049.0</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C183" s="1">
-        <v>0.795</v>
-      </c>
-      <c r="D183" s="1">
-        <v>-292.0</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F183" s="1">
-        <v>40.0</v>
       </c>
       <c r="G183" s="1">
         <v>0.1</v>
@@ -10386,7 +10410,7 @@
         <v>0.03</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
@@ -10409,19 +10433,10 @@
         <v>46049.0</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C184" s="1">
-        <v>0.734</v>
-      </c>
-      <c r="D184" s="1">
-        <v>-216.0</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F184" s="1">
-        <v>23.0</v>
       </c>
       <c r="G184" s="1">
         <v>0.1</v>
@@ -10436,7 +10451,7 @@
         <v>0.05</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
@@ -10459,19 +10474,10 @@
         <v>46049.0</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C185" s="1">
-        <v>0.688</v>
-      </c>
-      <c r="D185" s="1">
-        <v>-176.0</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F185" s="1">
-        <v>34.0</v>
       </c>
       <c r="G185" s="1">
         <v>0.1</v>
@@ -10486,7 +10492,7 @@
         <v>-0.1</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -10509,7 +10515,7 @@
         <v>46049.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C186" s="1">
         <v>0.638</v>
@@ -10518,7 +10524,7 @@
         <v>-138.0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F186" s="1">
         <v>33.0</v>
@@ -10536,7 +10542,7 @@
         <v>-0.1</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
@@ -10559,7 +10565,7 @@
         <v>46049.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C187" s="1">
         <v>0.7541</v>
@@ -10586,7 +10592,7 @@
         <v>-0.1</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
@@ -10609,7 +10615,7 @@
         <v>46049.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C188" s="1">
         <v>0.5927</v>
@@ -10636,7 +10642,7 @@
         <v>0.08</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
@@ -10659,7 +10665,7 @@
         <v>46049.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C189" s="1">
         <v>0.6412</v>
@@ -10686,7 +10692,7 @@
         <v>0.03</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
@@ -10709,7 +10715,7 @@
         <v>46049.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C190" s="1">
         <v>0.6313</v>
@@ -10718,7 +10724,7 @@
         <v>-278.0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F190" s="1">
         <v>13.0</v>
@@ -10736,7 +10742,7 @@
         <v>0.03</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
@@ -10759,7 +10765,7 @@
         <v>46049.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C191" s="1">
         <v>0.615</v>
@@ -10768,7 +10774,7 @@
         <v>-233.0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F191" s="1">
         <v>41.0</v>
@@ -10786,7 +10792,7 @@
         <v>0.05</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -10809,7 +10815,7 @@
         <v>46049.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C192" s="1">
         <v>0.6459</v>
@@ -10818,7 +10824,7 @@
         <v>-332.0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F192" s="1">
         <v>74.0</v>
@@ -10836,7 +10842,7 @@
         <v>0.03</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
@@ -10859,7 +10865,7 @@
         <v>46049.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C193" s="1">
         <v>0.5503</v>
@@ -10909,7 +10915,7 @@
         <v>46049.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C194" s="1">
         <v>0.6432</v>
@@ -10955,38 +10961,32 @@
       <c r="Z194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="10">
+      <c r="A195" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="12">
+        <v>-166.0</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J195" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="C195" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="D195" s="11">
-        <v>-376.0</v>
-      </c>
-      <c r="E195" s="11">
-        <v>-166.0</v>
-      </c>
-      <c r="F195" s="11">
-        <v>210.0</v>
-      </c>
-      <c r="G195" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H195" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I195" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="J195" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="K195" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
@@ -11005,38 +11005,32 @@
       <c r="Z195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="10">
+      <c r="A196" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C196" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="D196" s="11">
-        <v>-186.0</v>
-      </c>
-      <c r="E196" s="11">
+      <c r="B196" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="12">
         <v>-130.0</v>
       </c>
-      <c r="F196" s="11">
-        <v>56.0</v>
-      </c>
-      <c r="G196" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H196" s="11" t="s">
+      <c r="F196" s="1"/>
+      <c r="G196" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H196" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I196" s="11">
+      <c r="I196" s="12">
         <v>0.0</v>
       </c>
-      <c r="J196" s="11">
+      <c r="J196" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K196" s="11" t="s">
-        <v>221</v>
+      <c r="K196" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
@@ -11055,38 +11049,38 @@
       <c r="Z196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="10">
+      <c r="A197" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C197" s="11">
+      <c r="B197" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C197" s="12">
         <v>0.7032</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="12">
         <v>-173.0</v>
       </c>
-      <c r="E197" s="11">
+      <c r="E197" s="12">
         <v>-130.0</v>
       </c>
-      <c r="F197" s="11">
+      <c r="F197" s="12">
         <v>43.0</v>
       </c>
-      <c r="G197" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H197" s="11" t="s">
+      <c r="G197" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H197" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I197" s="11">
+      <c r="I197" s="12">
         <v>0.0</v>
       </c>
-      <c r="J197" s="11">
+      <c r="J197" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K197" s="11" t="s">
-        <v>116</v>
+      <c r="K197" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
@@ -11105,37 +11099,37 @@
       <c r="Z197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="10">
+      <c r="A198" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C198" s="11">
+      <c r="B198" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C198" s="12">
         <v>0.46</v>
       </c>
-      <c r="D198" s="11">
+      <c r="D198" s="12">
         <v>163.0</v>
       </c>
-      <c r="E198" s="11">
+      <c r="E198" s="12">
         <v>215.0</v>
       </c>
-      <c r="F198" s="11">
+      <c r="F198" s="12">
         <v>52.0</v>
       </c>
-      <c r="G198" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H198" s="11" t="s">
+      <c r="G198" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H198" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I198" s="11">
+      <c r="I198" s="12">
         <v>0.0</v>
       </c>
-      <c r="J198" s="11">
+      <c r="J198" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K198" s="11" t="s">
+      <c r="K198" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L198" s="1"/>
@@ -11155,38 +11149,32 @@
       <c r="Z198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="10">
+      <c r="A199" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C199" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="D199" s="11">
-        <v>-156.0</v>
-      </c>
-      <c r="E199" s="11">
+      <c r="B199" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="12">
         <v>-130.0</v>
       </c>
-      <c r="F199" s="11">
-        <v>26.0</v>
-      </c>
-      <c r="G199" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H199" s="11" t="s">
+      <c r="F199" s="1"/>
+      <c r="G199" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H199" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I199" s="11">
+      <c r="I199" s="12">
         <v>0.17</v>
       </c>
-      <c r="J199" s="11">
+      <c r="J199" s="12">
         <v>0.07</v>
       </c>
-      <c r="K199" s="11" t="s">
-        <v>221</v>
+      <c r="K199" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
@@ -11205,38 +11193,38 @@
       <c r="Z199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="10">
+      <c r="A200" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C200" s="11">
+      <c r="B200" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C200" s="12">
         <v>0.7286</v>
       </c>
-      <c r="D200" s="11">
+      <c r="D200" s="12">
         <v>-193.0</v>
       </c>
-      <c r="E200" s="11">
+      <c r="E200" s="12">
         <v>110.0</v>
       </c>
-      <c r="F200" s="11">
+      <c r="F200" s="12">
         <v>303.0</v>
       </c>
-      <c r="G200" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H200" s="11" t="s">
+      <c r="G200" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H200" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I200" s="11">
+      <c r="I200" s="12">
         <v>0.21</v>
       </c>
-      <c r="J200" s="11">
+      <c r="J200" s="12">
         <v>0.11</v>
       </c>
-      <c r="K200" s="11" t="s">
-        <v>116</v>
+      <c r="K200" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
@@ -11255,37 +11243,37 @@
       <c r="Z200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="10">
+      <c r="A201" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B201" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C201" s="11">
+      <c r="B201" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C201" s="12">
         <v>0.52</v>
       </c>
-      <c r="D201" s="11">
+      <c r="D201" s="12">
         <v>112.0</v>
       </c>
-      <c r="E201" s="11">
+      <c r="E201" s="12">
         <v>145.0</v>
       </c>
-      <c r="F201" s="11">
+      <c r="F201" s="12">
         <v>33.0</v>
       </c>
-      <c r="G201" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H201" s="11" t="s">
+      <c r="G201" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H201" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I201" s="11">
+      <c r="I201" s="12">
         <v>0.24</v>
       </c>
-      <c r="J201" s="11">
+      <c r="J201" s="12">
         <v>0.14</v>
       </c>
-      <c r="K201" s="11" t="s">
+      <c r="K201" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L201" s="1"/>
@@ -11305,38 +11293,38 @@
       <c r="Z201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="10">
+      <c r="A202" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C202" s="11">
+      <c r="B202" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C202" s="12">
         <v>0.6289</v>
       </c>
-      <c r="D202" s="11">
+      <c r="D202" s="12">
         <v>-127.0</v>
       </c>
-      <c r="E202" s="11">
+      <c r="E202" s="12">
         <v>-105.0</v>
       </c>
-      <c r="F202" s="11">
+      <c r="F202" s="12">
         <v>22.0</v>
       </c>
-      <c r="G202" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H202" s="11" t="s">
+      <c r="G202" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H202" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I202" s="11">
+      <c r="I202" s="12">
         <v>0.19</v>
       </c>
-      <c r="J202" s="11">
+      <c r="J202" s="12">
         <v>0.09</v>
       </c>
-      <c r="K202" s="11" t="s">
-        <v>116</v>
+      <c r="K202" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
@@ -11355,38 +11343,38 @@
       <c r="Z202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="10">
+      <c r="A203" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B203" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C203" s="11">
+      <c r="B203" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C203" s="12">
         <v>0.5966</v>
       </c>
-      <c r="D203" s="11">
+      <c r="D203" s="12">
         <v>-111.0</v>
       </c>
-      <c r="E203" s="11">
+      <c r="E203" s="12">
         <v>-110.0</v>
       </c>
-      <c r="F203" s="11">
+      <c r="F203" s="12">
         <v>1.0</v>
       </c>
-      <c r="G203" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H203" s="11" t="s">
+      <c r="G203" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H203" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I203" s="11">
+      <c r="I203" s="12">
         <v>0.0</v>
       </c>
-      <c r="J203" s="11">
+      <c r="J203" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K203" s="11" t="s">
-        <v>116</v>
+      <c r="K203" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
@@ -11405,38 +11393,32 @@
       <c r="Z203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="10">
+      <c r="A204" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C204" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="D204" s="11">
-        <v>-1329.0</v>
-      </c>
-      <c r="E204" s="11">
+      <c r="B204" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="12">
         <v>105.0</v>
       </c>
-      <c r="F204" s="11">
-        <v>1434.0</v>
-      </c>
-      <c r="G204" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H204" s="11" t="s">
+      <c r="F204" s="1"/>
+      <c r="G204" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H204" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I204" s="11">
+      <c r="I204" s="12">
         <v>0.0</v>
       </c>
-      <c r="J204" s="11">
+      <c r="J204" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K204" s="11" t="s">
-        <v>221</v>
+      <c r="K204" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
@@ -11455,38 +11437,32 @@
       <c r="Z204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="10">
+      <c r="A205" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C205" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="D205" s="11">
-        <v>-138.0</v>
-      </c>
-      <c r="E205" s="11">
+      <c r="B205" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="12">
         <v>104.0</v>
       </c>
-      <c r="F205" s="11">
-        <v>242.0</v>
-      </c>
-      <c r="G205" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H205" s="11" t="s">
+      <c r="F205" s="1"/>
+      <c r="G205" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H205" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I205" s="11">
+      <c r="I205" s="12">
         <v>0.2</v>
       </c>
-      <c r="J205" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K205" s="11" t="s">
-        <v>221</v>
+      <c r="J205" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K205" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
@@ -11505,38 +11481,32 @@
       <c r="Z205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="10">
+      <c r="A206" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C206" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="D206" s="11">
-        <v>-150.0</v>
-      </c>
-      <c r="E206" s="11">
+      <c r="B206" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="12">
         <v>119.0</v>
       </c>
-      <c r="F206" s="11">
-        <v>269.0</v>
-      </c>
-      <c r="G206" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H206" s="11" t="s">
+      <c r="F206" s="1"/>
+      <c r="G206" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H206" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I206" s="11">
+      <c r="I206" s="12">
         <v>0.21</v>
       </c>
-      <c r="J206" s="11">
+      <c r="J206" s="12">
         <v>0.11</v>
       </c>
-      <c r="K206" s="11" t="s">
-        <v>221</v>
+      <c r="K206" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
@@ -11555,38 +11525,38 @@
       <c r="Z206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="10">
+      <c r="A207" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C207" s="11">
+      <c r="B207" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C207" s="12">
         <v>0.6049</v>
       </c>
-      <c r="D207" s="11">
+      <c r="D207" s="12">
         <v>-115.0</v>
       </c>
-      <c r="E207" s="11">
+      <c r="E207" s="12">
         <v>114.0</v>
       </c>
-      <c r="F207" s="11">
+      <c r="F207" s="12">
         <v>229.0</v>
       </c>
-      <c r="G207" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H207" s="11" t="s">
+      <c r="G207" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H207" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I207" s="11">
+      <c r="I207" s="12">
         <v>0.0</v>
       </c>
-      <c r="J207" s="11">
+      <c r="J207" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K207" s="11" t="s">
-        <v>116</v>
+      <c r="K207" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
@@ -11605,37 +11575,37 @@
       <c r="Z207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="10">
+      <c r="A208" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C208" s="11">
+      <c r="B208" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C208" s="12">
         <v>0.62</v>
       </c>
-      <c r="D208" s="11">
+      <c r="D208" s="12">
         <v>-116.0</v>
       </c>
-      <c r="E208" s="11">
+      <c r="E208" s="12">
         <v>-115.0</v>
       </c>
-      <c r="F208" s="11">
+      <c r="F208" s="12">
         <v>1.0</v>
       </c>
-      <c r="G208" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H208" s="11" t="s">
+      <c r="G208" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H208" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I208" s="11">
+      <c r="I208" s="12">
         <v>0.0</v>
       </c>
-      <c r="J208" s="11">
+      <c r="J208" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K208" s="11" t="s">
+      <c r="K208" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L208" s="1"/>
@@ -11655,38 +11625,32 @@
       <c r="Z208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="10">
+      <c r="A209" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C209" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="D209" s="11">
-        <v>-163.0</v>
-      </c>
-      <c r="E209" s="11">
+      <c r="B209" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="12">
         <v>100.0</v>
       </c>
-      <c r="F209" s="11">
-        <v>263.0</v>
-      </c>
-      <c r="G209" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H209" s="11" t="s">
+      <c r="F209" s="1"/>
+      <c r="G209" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H209" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I209" s="11">
+      <c r="I209" s="12">
         <v>0.0</v>
       </c>
-      <c r="J209" s="11">
+      <c r="J209" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K209" s="11" t="s">
-        <v>221</v>
+      <c r="K209" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
@@ -11705,38 +11669,38 @@
       <c r="Z209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="10">
+      <c r="A210" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C210" s="11">
+      <c r="B210" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C210" s="12">
         <v>0.5776</v>
       </c>
-      <c r="D210" s="11">
+      <c r="D210" s="12">
         <v>-103.0</v>
       </c>
-      <c r="E210" s="11">
+      <c r="E210" s="12">
         <v>100.0</v>
       </c>
-      <c r="F210" s="11">
+      <c r="F210" s="12">
         <v>203.0</v>
       </c>
-      <c r="G210" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H210" s="11" t="s">
+      <c r="G210" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H210" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I210" s="11">
+      <c r="I210" s="12">
         <v>0.2</v>
       </c>
-      <c r="J210" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K210" s="11" t="s">
-        <v>116</v>
+      <c r="J210" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K210" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
@@ -11755,38 +11719,38 @@
       <c r="Z210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="10">
+      <c r="A211" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C211" s="11">
+      <c r="B211" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C211" s="12">
         <v>0.6797</v>
       </c>
-      <c r="D211" s="11">
+      <c r="D211" s="12">
         <v>-156.0</v>
       </c>
-      <c r="E211" s="11">
+      <c r="E211" s="12">
         <v>-115.0</v>
       </c>
-      <c r="F211" s="11">
+      <c r="F211" s="12">
         <v>41.0</v>
       </c>
-      <c r="G211" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H211" s="11" t="s">
+      <c r="G211" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H211" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I211" s="11">
+      <c r="I211" s="12">
         <v>0.18</v>
       </c>
-      <c r="J211" s="11">
+      <c r="J211" s="12">
         <v>0.08</v>
       </c>
-      <c r="K211" s="11" t="s">
-        <v>116</v>
+      <c r="K211" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
@@ -11805,37 +11769,37 @@
       <c r="Z211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="10">
+      <c r="A212" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B212" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C212" s="11">
+      <c r="B212" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C212" s="12">
         <v>0.55</v>
       </c>
-      <c r="D212" s="11">
+      <c r="D212" s="12">
         <v>100.0</v>
       </c>
-      <c r="E212" s="11">
+      <c r="E212" s="12">
         <v>110.0</v>
       </c>
-      <c r="F212" s="11">
+      <c r="F212" s="12">
         <v>10.0</v>
       </c>
-      <c r="G212" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H212" s="11" t="s">
+      <c r="G212" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H212" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I212" s="11">
+      <c r="I212" s="12">
         <v>0.0</v>
       </c>
-      <c r="J212" s="11">
+      <c r="J212" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K212" s="11" t="s">
+      <c r="K212" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L212" s="1"/>
@@ -11855,37 +11819,37 @@
       <c r="Z212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="10">
+      <c r="A213" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C213" s="11">
+      <c r="B213" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C213" s="12">
         <v>0.52</v>
       </c>
-      <c r="D213" s="11">
+      <c r="D213" s="12">
         <v>112.0</v>
       </c>
-      <c r="E213" s="11">
+      <c r="E213" s="12">
         <v>142.0</v>
       </c>
-      <c r="F213" s="11">
+      <c r="F213" s="12">
         <v>30.0</v>
       </c>
-      <c r="G213" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H213" s="11" t="s">
+      <c r="G213" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H213" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I213" s="11">
+      <c r="I213" s="12">
         <v>0.0</v>
       </c>
-      <c r="J213" s="11">
+      <c r="J213" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K213" s="11" t="s">
+      <c r="K213" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L213" s="1"/>
@@ -11905,38 +11869,38 @@
       <c r="Z213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="10">
+      <c r="A214" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B214" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C214" s="11">
+      <c r="B214" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C214" s="12">
         <v>0.7233</v>
       </c>
-      <c r="D214" s="11">
+      <c r="D214" s="12">
         <v>-188.0</v>
       </c>
-      <c r="E214" s="11">
+      <c r="E214" s="12">
         <v>-140.0</v>
       </c>
-      <c r="F214" s="11">
+      <c r="F214" s="12">
         <v>48.0</v>
       </c>
-      <c r="G214" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H214" s="11" t="s">
+      <c r="G214" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H214" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I214" s="11">
+      <c r="I214" s="12">
         <v>0.0</v>
       </c>
-      <c r="J214" s="11">
+      <c r="J214" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K214" s="11" t="s">
-        <v>116</v>
+      <c r="K214" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
@@ -11955,38 +11919,32 @@
       <c r="Z214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="10">
+      <c r="A215" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C215" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="D215" s="11">
-        <v>-163.0</v>
-      </c>
-      <c r="E215" s="11">
+      <c r="B215" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="12">
         <v>109.0</v>
       </c>
-      <c r="F215" s="11">
-        <v>272.0</v>
-      </c>
-      <c r="G215" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H215" s="11" t="s">
+      <c r="F215" s="1"/>
+      <c r="G215" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H215" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I215" s="11">
+      <c r="I215" s="12">
         <v>0.0</v>
       </c>
-      <c r="J215" s="11">
+      <c r="J215" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K215" s="11" t="s">
-        <v>221</v>
+      <c r="K215" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
@@ -12005,37 +11963,37 @@
       <c r="Z215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="10">
+      <c r="A216" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C216" s="11">
+      <c r="C216" s="12">
         <v>0.412</v>
       </c>
-      <c r="D216" s="11">
+      <c r="D216" s="12">
         <v>185.0</v>
       </c>
-      <c r="E216" s="11">
+      <c r="E216" s="12">
         <v>245.0</v>
       </c>
-      <c r="F216" s="11">
+      <c r="F216" s="12">
         <v>60.0</v>
       </c>
-      <c r="G216" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H216" s="11" t="s">
+      <c r="G216" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H216" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I216" s="11">
+      <c r="I216" s="12">
         <v>0.0</v>
       </c>
-      <c r="J216" s="11">
+      <c r="J216" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K216" s="11" t="s">
+      <c r="K216" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L216" s="1"/>
@@ -12055,37 +12013,37 @@
       <c r="Z216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="10">
+      <c r="A217" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C217" s="11">
+      <c r="B217" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C217" s="12">
         <v>0.774</v>
       </c>
-      <c r="D217" s="11">
+      <c r="D217" s="12">
         <v>-275.0</v>
       </c>
-      <c r="E217" s="11">
+      <c r="E217" s="12">
         <v>-195.0</v>
       </c>
-      <c r="F217" s="11">
+      <c r="F217" s="12">
         <v>80.0</v>
       </c>
-      <c r="G217" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H217" s="11" t="s">
+      <c r="G217" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H217" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I217" s="11">
+      <c r="I217" s="12">
         <v>0.15</v>
       </c>
-      <c r="J217" s="11">
+      <c r="J217" s="12">
         <v>0.05</v>
       </c>
-      <c r="K217" s="11" t="s">
+      <c r="K217" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L217" s="1"/>
@@ -12105,37 +12063,37 @@
       <c r="Z217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="10">
+      <c r="A218" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C218" s="11">
+      <c r="C218" s="12">
         <v>0.464</v>
       </c>
-      <c r="D218" s="11">
+      <c r="D218" s="12">
         <v>141.0</v>
       </c>
-      <c r="E218" s="11">
+      <c r="E218" s="12">
         <v>215.0</v>
       </c>
-      <c r="F218" s="11">
+      <c r="F218" s="12">
         <v>74.0</v>
       </c>
-      <c r="G218" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H218" s="11" t="s">
+      <c r="G218" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H218" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I218" s="11">
+      <c r="I218" s="12">
         <v>0.0</v>
       </c>
-      <c r="J218" s="11">
+      <c r="J218" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K218" s="11" t="s">
+      <c r="K218" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L218" s="1"/>
@@ -12155,37 +12113,37 @@
       <c r="Z218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="10">
+      <c r="A219" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B219" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C219" s="11">
+      <c r="B219" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C219" s="12">
         <v>0.557</v>
       </c>
-      <c r="D219" s="11">
+      <c r="D219" s="12">
         <v>-108.0</v>
       </c>
-      <c r="E219" s="11">
+      <c r="E219" s="12">
         <v>120.0</v>
       </c>
-      <c r="F219" s="11">
+      <c r="F219" s="12">
         <v>228.0</v>
       </c>
-      <c r="G219" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H219" s="11" t="s">
+      <c r="G219" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H219" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I219" s="11">
+      <c r="I219" s="12">
         <v>0.0</v>
       </c>
-      <c r="J219" s="11">
+      <c r="J219" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K219" s="11" t="s">
+      <c r="K219" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L219" s="1"/>
@@ -12205,37 +12163,37 @@
       <c r="Z219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="10">
+      <c r="A220" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C220" s="11">
+      <c r="C220" s="12">
         <v>0.831</v>
       </c>
-      <c r="D220" s="11">
+      <c r="D220" s="12">
         <v>-374.0</v>
       </c>
-      <c r="E220" s="11">
+      <c r="E220" s="12">
         <v>-370.0</v>
       </c>
-      <c r="F220" s="11">
+      <c r="F220" s="12">
         <v>4.0</v>
       </c>
-      <c r="G220" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H220" s="11" t="s">
+      <c r="G220" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H220" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I220" s="11">
+      <c r="I220" s="12">
         <v>0.0</v>
       </c>
-      <c r="J220" s="11">
+      <c r="J220" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K220" s="11" t="s">
+      <c r="K220" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L220" s="1"/>
@@ -12255,37 +12213,37 @@
       <c r="Z220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="10">
+      <c r="A221" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C221" s="11">
+      <c r="B221" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C221" s="12">
         <v>0.308</v>
       </c>
-      <c r="D221" s="11">
+      <c r="D221" s="12">
         <v>341.0</v>
       </c>
-      <c r="E221" s="11">
+      <c r="E221" s="12">
         <v>310.0</v>
       </c>
-      <c r="F221" s="11">
+      <c r="F221" s="12">
         <v>-31.0</v>
       </c>
-      <c r="G221" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H221" s="11" t="s">
+      <c r="G221" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H221" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I221" s="11">
+      <c r="I221" s="12">
         <v>0.41</v>
       </c>
-      <c r="J221" s="11">
+      <c r="J221" s="12">
         <v>0.31</v>
       </c>
-      <c r="K221" s="11" t="s">
+      <c r="K221" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L221" s="1"/>
@@ -12305,38 +12263,32 @@
       <c r="Z221" s="1"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="10">
+      <c r="A222" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B222" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C222" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="D222" s="11">
-        <v>-233.0</v>
-      </c>
-      <c r="E222" s="11">
+      <c r="B222" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="12">
         <v>-183.0</v>
       </c>
-      <c r="F222" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="G222" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H222" s="11" t="s">
+      <c r="F222" s="1"/>
+      <c r="G222" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H222" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I222" s="11">
+      <c r="I222" s="12">
         <v>0.0</v>
       </c>
-      <c r="J222" s="11">
+      <c r="J222" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K222" s="11" t="s">
-        <v>221</v>
+      <c r="K222" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
@@ -12355,37 +12307,37 @@
       <c r="Z222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="10">
+      <c r="A223" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C223" s="11">
+      <c r="C223" s="12">
         <v>0.509</v>
       </c>
-      <c r="D223" s="11">
+      <c r="D223" s="12">
         <v>116.0</v>
       </c>
-      <c r="E223" s="11">
+      <c r="E223" s="12">
         <v>380.0</v>
       </c>
-      <c r="F223" s="11">
+      <c r="F223" s="12">
         <v>264.0</v>
       </c>
-      <c r="G223" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H223" s="11" t="s">
+      <c r="G223" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H223" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I223" s="11">
+      <c r="I223" s="12">
         <v>0.0</v>
       </c>
-      <c r="J223" s="11">
+      <c r="J223" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K223" s="11" t="s">
+      <c r="K223" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L223" s="1"/>
@@ -12405,37 +12357,37 @@
       <c r="Z223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="10">
+      <c r="A224" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B224" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C224" s="11">
+      <c r="B224" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C224" s="12">
         <v>0.377</v>
       </c>
-      <c r="D224" s="11">
+      <c r="D224" s="12">
         <v>239.0</v>
       </c>
-      <c r="E224" s="11">
+      <c r="E224" s="12">
         <v>270.0</v>
       </c>
-      <c r="F224" s="11">
+      <c r="F224" s="12">
         <v>31.0</v>
       </c>
-      <c r="G224" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H224" s="11" t="s">
+      <c r="G224" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H224" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I224" s="11">
+      <c r="I224" s="12">
         <v>0.0</v>
       </c>
-      <c r="J224" s="11">
+      <c r="J224" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K224" s="11" t="s">
+      <c r="K224" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L224" s="1"/>
@@ -12455,37 +12407,37 @@
       <c r="Z224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="10">
+      <c r="A225" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B225" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C225" s="11">
+      <c r="B225" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C225" s="12">
         <v>0.591</v>
       </c>
-      <c r="D225" s="11">
+      <c r="D225" s="12">
         <v>-124.0</v>
       </c>
-      <c r="E225" s="11">
+      <c r="E225" s="12">
         <v>165.0</v>
       </c>
-      <c r="F225" s="11">
+      <c r="F225" s="12">
         <v>289.0</v>
       </c>
-      <c r="G225" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H225" s="11" t="s">
+      <c r="G225" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H225" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I225" s="11">
+      <c r="I225" s="12">
         <v>0.26</v>
       </c>
-      <c r="J225" s="11">
+      <c r="J225" s="12">
         <v>0.16</v>
       </c>
-      <c r="K225" s="11" t="s">
+      <c r="K225" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L225" s="1"/>
@@ -12505,37 +12457,37 @@
       <c r="Z225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="10">
+      <c r="A226" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C226" s="11">
+      <c r="B226" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C226" s="12">
         <v>0.46</v>
       </c>
-      <c r="D226" s="11">
+      <c r="D226" s="12">
         <v>163.0</v>
       </c>
-      <c r="E226" s="11">
+      <c r="E226" s="12">
         <v>164.0</v>
       </c>
-      <c r="F226" s="11">
+      <c r="F226" s="12">
         <v>1.0</v>
       </c>
-      <c r="G226" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H226" s="11" t="s">
+      <c r="G226" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H226" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I226" s="11">
+      <c r="I226" s="12">
         <v>0.0</v>
       </c>
-      <c r="J226" s="11">
+      <c r="J226" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K226" s="11" t="s">
+      <c r="K226" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L226" s="1"/>
@@ -12555,38 +12507,32 @@
       <c r="Z226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="10">
+      <c r="A227" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B227" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C227" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="D227" s="11">
-        <v>-170.0</v>
-      </c>
-      <c r="E227" s="11">
+      <c r="B227" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="12">
         <v>109.0</v>
       </c>
-      <c r="F227" s="11">
-        <v>279.0</v>
-      </c>
-      <c r="G227" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H227" s="11" t="s">
+      <c r="F227" s="1"/>
+      <c r="G227" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H227" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I227" s="11">
+      <c r="I227" s="12">
         <v>0.2</v>
       </c>
-      <c r="J227" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K227" s="11" t="s">
-        <v>221</v>
+      <c r="J227" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K227" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
@@ -12605,38 +12551,38 @@
       <c r="Z227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="10">
+      <c r="A228" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B228" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C228" s="11">
+      <c r="B228" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C228" s="12">
         <v>0.5758</v>
       </c>
-      <c r="D228" s="11">
+      <c r="D228" s="12">
         <v>-227.0</v>
       </c>
-      <c r="E228" s="11">
+      <c r="E228" s="12">
         <v>-245.0</v>
       </c>
-      <c r="F228" s="11">
+      <c r="F228" s="12">
         <v>-18.0</v>
       </c>
-      <c r="G228" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H228" s="11" t="s">
+      <c r="G228" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H228" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I228" s="11">
+      <c r="I228" s="12">
         <v>0.0</v>
       </c>
-      <c r="J228" s="11">
+      <c r="J228" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K228" s="11" t="s">
-        <v>211</v>
+      <c r="K228" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
@@ -12655,38 +12601,32 @@
       <c r="Z228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="10">
+      <c r="A229" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C229" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="D229" s="11">
-        <v>-133.0</v>
-      </c>
-      <c r="E229" s="11">
+      <c r="B229" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="12">
         <v>-108.0</v>
       </c>
-      <c r="F229" s="11">
-        <v>25.0</v>
-      </c>
-      <c r="G229" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H229" s="11" t="s">
+      <c r="F229" s="1"/>
+      <c r="G229" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H229" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I229" s="11">
+      <c r="I229" s="12">
         <v>0.19</v>
       </c>
-      <c r="J229" s="11">
+      <c r="J229" s="12">
         <v>0.09</v>
       </c>
-      <c r="K229" s="11" t="s">
-        <v>221</v>
+      <c r="K229" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
@@ -12705,38 +12645,38 @@
       <c r="Z229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="10">
+      <c r="A230" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B230" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C230" s="11">
+      <c r="B230" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C230" s="12">
         <v>0.5157</v>
       </c>
-      <c r="D230" s="11">
+      <c r="D230" s="12">
         <v>117.0</v>
       </c>
-      <c r="E230" s="11">
+      <c r="E230" s="12">
         <v>125.0</v>
       </c>
-      <c r="F230" s="11">
+      <c r="F230" s="12">
         <v>8.0</v>
       </c>
-      <c r="G230" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H230" s="11" t="s">
+      <c r="G230" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H230" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I230" s="11">
+      <c r="I230" s="12">
         <v>0.0</v>
       </c>
-      <c r="J230" s="11">
+      <c r="J230" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K230" s="11" t="s">
-        <v>145</v>
+      <c r="K230" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
@@ -12755,38 +12695,32 @@
       <c r="Z230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="10">
+      <c r="A231" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C231" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="D231" s="11">
-        <v>-400.0</v>
-      </c>
-      <c r="E231" s="11">
+      <c r="B231" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="12">
         <v>-219.0</v>
       </c>
-      <c r="F231" s="11">
-        <v>181.0</v>
-      </c>
-      <c r="G231" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H231" s="11" t="s">
+      <c r="F231" s="1"/>
+      <c r="G231" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H231" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I231" s="11">
+      <c r="I231" s="12">
         <v>0.14</v>
       </c>
-      <c r="J231" s="11">
+      <c r="J231" s="12">
         <v>0.04</v>
       </c>
-      <c r="K231" s="11" t="s">
-        <v>221</v>
+      <c r="K231" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
@@ -12805,38 +12739,29 @@
       <c r="Z231" s="1"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="10">
+      <c r="A232" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B232" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C232" s="11">
-        <v>0.667</v>
-      </c>
-      <c r="D232" s="11">
-        <v>-161.0</v>
-      </c>
-      <c r="E232" s="11">
+      <c r="B232" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E232" s="12">
         <v>-157.0</v>
       </c>
-      <c r="F232" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="G232" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H232" s="11" t="s">
+      <c r="G232" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H232" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I232" s="11">
+      <c r="I232" s="12">
         <v>0.16</v>
       </c>
-      <c r="J232" s="11">
+      <c r="J232" s="12">
         <v>0.06</v>
       </c>
-      <c r="K232" s="11" t="s">
-        <v>199</v>
+      <c r="K232" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
@@ -12855,38 +12780,38 @@
       <c r="Z232" s="1"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="10">
+      <c r="A233" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B233" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C233" s="11">
+      <c r="B233" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C233" s="12">
         <v>0.6764</v>
       </c>
-      <c r="D233" s="11">
+      <c r="D233" s="12">
         <v>-160.0</v>
       </c>
-      <c r="E233" s="11">
+      <c r="E233" s="12">
         <v>-108.0</v>
       </c>
-      <c r="F233" s="11">
+      <c r="F233" s="12">
         <v>52.0</v>
       </c>
-      <c r="G233" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H233" s="11" t="s">
+      <c r="G233" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H233" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I233" s="11">
+      <c r="I233" s="12">
         <v>0.0</v>
       </c>
-      <c r="J233" s="11">
+      <c r="J233" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K233" s="11" t="s">
-        <v>145</v>
+      <c r="K233" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
@@ -12905,38 +12830,29 @@
       <c r="Z233" s="1"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="10">
+      <c r="A234" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B234" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C234" s="11">
-        <v>0.588</v>
-      </c>
-      <c r="D234" s="11">
-        <v>-116.0</v>
-      </c>
-      <c r="E234" s="11">
+      <c r="B234" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E234" s="12">
         <v>-112.0</v>
       </c>
-      <c r="F234" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="G234" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H234" s="11" t="s">
+      <c r="G234" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H234" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I234" s="11">
+      <c r="I234" s="12">
         <v>0.0</v>
       </c>
-      <c r="J234" s="11">
+      <c r="J234" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K234" s="11" t="s">
-        <v>199</v>
+      <c r="K234" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
@@ -12955,38 +12871,32 @@
       <c r="Z234" s="1"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="10">
+      <c r="A235" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B235" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C235" s="11">
-        <v>0.69</v>
-      </c>
-      <c r="D235" s="11">
-        <v>-178.0</v>
-      </c>
-      <c r="E235" s="11">
+      <c r="B235" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="12">
         <v>-112.0</v>
       </c>
-      <c r="F235" s="11">
-        <v>66.0</v>
-      </c>
-      <c r="G235" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H235" s="11" t="s">
+      <c r="F235" s="1"/>
+      <c r="G235" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H235" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I235" s="11">
+      <c r="I235" s="12">
         <v>0.0</v>
       </c>
-      <c r="J235" s="11">
+      <c r="J235" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K235" s="11" t="s">
-        <v>221</v>
+      <c r="K235" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
@@ -13005,38 +12915,32 @@
       <c r="Z235" s="1"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="10">
+      <c r="A236" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C236" s="11">
-        <v>0.82</v>
-      </c>
-      <c r="D236" s="11">
-        <v>-335.0</v>
-      </c>
-      <c r="E236" s="11">
+      <c r="B236" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="12">
         <v>-146.0</v>
       </c>
-      <c r="F236" s="11">
-        <v>189.0</v>
-      </c>
-      <c r="G236" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H236" s="11" t="s">
+      <c r="F236" s="1"/>
+      <c r="G236" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H236" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I236" s="11">
+      <c r="I236" s="12">
         <v>0.0</v>
       </c>
-      <c r="J236" s="11">
+      <c r="J236" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K236" s="11" t="s">
-        <v>221</v>
+      <c r="K236" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
@@ -13055,38 +12959,38 @@
       <c r="Z236" s="1"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="10">
+      <c r="A237" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C237" s="11">
+      <c r="B237" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C237" s="12">
         <v>0.781</v>
       </c>
-      <c r="D237" s="11">
+      <c r="D237" s="12">
         <v>-246.0</v>
       </c>
-      <c r="E237" s="11">
+      <c r="E237" s="12">
         <v>-105.0</v>
       </c>
-      <c r="F237" s="11">
+      <c r="F237" s="12">
         <v>141.0</v>
       </c>
-      <c r="G237" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H237" s="11" t="s">
+      <c r="G237" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H237" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I237" s="11">
+      <c r="I237" s="12">
         <v>0.0</v>
       </c>
-      <c r="J237" s="11">
+      <c r="J237" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K237" s="11" t="s">
-        <v>116</v>
+      <c r="K237" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
@@ -13105,38 +13009,32 @@
       <c r="Z237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="10">
+      <c r="A238" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B238" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C238" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="D238" s="11">
-        <v>-355.0</v>
-      </c>
-      <c r="E238" s="11">
+      <c r="B238" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="12">
         <v>-151.0</v>
       </c>
-      <c r="F238" s="11">
-        <v>204.0</v>
-      </c>
-      <c r="G238" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H238" s="11" t="s">
+      <c r="F238" s="1"/>
+      <c r="G238" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H238" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I238" s="11">
+      <c r="I238" s="12">
         <v>0.0</v>
       </c>
-      <c r="J238" s="11">
+      <c r="J238" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K238" s="11" t="s">
-        <v>221</v>
+      <c r="K238" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
@@ -13155,38 +13053,29 @@
       <c r="Z238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="10">
+      <c r="A239" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B239" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C239" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="D239" s="11">
-        <v>-186.0</v>
-      </c>
-      <c r="E239" s="11">
+      <c r="B239" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E239" s="12">
         <v>-110.0</v>
       </c>
-      <c r="F239" s="11">
-        <v>76.0</v>
-      </c>
-      <c r="G239" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H239" s="11" t="s">
+      <c r="G239" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H239" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I239" s="11">
+      <c r="I239" s="12">
         <v>0.0</v>
       </c>
-      <c r="J239" s="11">
+      <c r="J239" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K239" s="11" t="s">
-        <v>199</v>
+      <c r="K239" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
@@ -13205,38 +13094,38 @@
       <c r="Z239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="10">
+      <c r="A240" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C240" s="11">
+      <c r="B240" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C240" s="12">
         <v>0.5502</v>
       </c>
-      <c r="D240" s="11">
+      <c r="D240" s="12">
         <v>-100.0</v>
       </c>
-      <c r="E240" s="11">
+      <c r="E240" s="12">
         <v>117.0</v>
       </c>
-      <c r="F240" s="11">
+      <c r="F240" s="12">
         <v>217.0</v>
       </c>
-      <c r="G240" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H240" s="11" t="s">
+      <c r="G240" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H240" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I240" s="11">
+      <c r="I240" s="12">
         <v>0.0</v>
       </c>
-      <c r="J240" s="11">
+      <c r="J240" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K240" s="11" t="s">
-        <v>145</v>
+      <c r="K240" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
@@ -13255,38 +13144,38 @@
       <c r="Z240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="10">
+      <c r="A241" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B241" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C241" s="11">
+      <c r="B241" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C241" s="12">
         <v>0.5973</v>
       </c>
-      <c r="D241" s="11">
+      <c r="D241" s="12">
         <v>-112.0</v>
       </c>
-      <c r="E241" s="11">
+      <c r="E241" s="12">
         <v>110.0</v>
       </c>
-      <c r="F241" s="11">
+      <c r="F241" s="12">
         <v>222.0</v>
       </c>
-      <c r="G241" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H241" s="11" t="s">
+      <c r="G241" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H241" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I241" s="11">
+      <c r="I241" s="12">
         <v>0.21</v>
       </c>
-      <c r="J241" s="11">
+      <c r="J241" s="12">
         <v>0.11</v>
       </c>
-      <c r="K241" s="11" t="s">
-        <v>116</v>
+      <c r="K241" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
@@ -13305,38 +13194,38 @@
       <c r="Z241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="10">
+      <c r="A242" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C242" s="11">
+      <c r="B242" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C242" s="12">
         <v>0.5905</v>
       </c>
-      <c r="D242" s="11">
+      <c r="D242" s="12">
         <v>-112.0</v>
       </c>
-      <c r="E242" s="11">
+      <c r="E242" s="12">
         <v>-110.0</v>
       </c>
-      <c r="F242" s="11">
+      <c r="F242" s="12">
         <v>2.0</v>
       </c>
-      <c r="G242" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H242" s="11" t="s">
+      <c r="G242" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H242" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I242" s="11">
+      <c r="I242" s="12">
         <v>0.0</v>
       </c>
-      <c r="J242" s="11">
+      <c r="J242" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K242" s="11" t="s">
-        <v>145</v>
+      <c r="K242" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
@@ -13355,38 +13244,32 @@
       <c r="Z242" s="1"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="10">
+      <c r="A243" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C243" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="D243" s="11">
-        <v>-400.0</v>
-      </c>
-      <c r="E243" s="11">
+      <c r="B243" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="12">
         <v>119.0</v>
       </c>
-      <c r="F243" s="11">
-        <v>519.0</v>
-      </c>
-      <c r="G243" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H243" s="11" t="s">
+      <c r="F243" s="1"/>
+      <c r="G243" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H243" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I243" s="11">
+      <c r="I243" s="12">
         <v>0.0</v>
       </c>
-      <c r="J243" s="11">
+      <c r="J243" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K243" s="11" t="s">
-        <v>221</v>
+      <c r="K243" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
@@ -13405,38 +13288,38 @@
       <c r="Z243" s="1"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="10">
+      <c r="A244" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B244" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C244" s="11">
+      <c r="B244" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C244" s="12">
         <v>0.6607</v>
       </c>
-      <c r="D244" s="11">
+      <c r="D244" s="12">
         <v>-226.0</v>
       </c>
-      <c r="E244" s="11">
+      <c r="E244" s="12">
         <v>-218.0</v>
       </c>
-      <c r="F244" s="11">
+      <c r="F244" s="12">
         <v>8.0</v>
       </c>
-      <c r="G244" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H244" s="11" t="s">
+      <c r="G244" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H244" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I244" s="11">
+      <c r="I244" s="12">
         <v>0.0</v>
       </c>
-      <c r="J244" s="11">
+      <c r="J244" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K244" s="11" t="s">
-        <v>211</v>
+      <c r="K244" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
@@ -13455,38 +13338,32 @@
       <c r="Z244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="10">
+      <c r="A245" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C245" s="11">
-        <v>0.82</v>
-      </c>
-      <c r="D245" s="11">
-        <v>-335.0</v>
-      </c>
-      <c r="E245" s="11">
+      <c r="B245" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="12">
         <v>-105.0</v>
       </c>
-      <c r="F245" s="11">
-        <v>230.0</v>
-      </c>
-      <c r="G245" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H245" s="11" t="s">
+      <c r="F245" s="1"/>
+      <c r="G245" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H245" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I245" s="11">
+      <c r="I245" s="12">
         <v>0.19</v>
       </c>
-      <c r="J245" s="11">
+      <c r="J245" s="12">
         <v>0.09</v>
       </c>
-      <c r="K245" s="11" t="s">
-        <v>221</v>
+      <c r="K245" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
@@ -13505,38 +13382,32 @@
       <c r="Z245" s="1"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="10">
+      <c r="A246" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C246" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="D246" s="11">
-        <v>-223.0</v>
-      </c>
-      <c r="E246" s="11">
+      <c r="B246" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="12">
         <v>126.0</v>
       </c>
-      <c r="F246" s="11">
-        <v>349.0</v>
-      </c>
-      <c r="G246" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H246" s="11" t="s">
+      <c r="F246" s="1"/>
+      <c r="G246" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H246" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I246" s="11">
+      <c r="I246" s="12">
         <v>0.0</v>
       </c>
-      <c r="J246" s="11">
+      <c r="J246" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K246" s="11" t="s">
-        <v>221</v>
+      <c r="K246" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
@@ -13555,37 +13426,37 @@
       <c r="Z246" s="1"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="10">
+      <c r="A247" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C247" s="11">
+      <c r="B247" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C247" s="12">
         <v>0.54</v>
       </c>
-      <c r="D247" s="11">
+      <c r="D247" s="12">
         <v>104.0</v>
       </c>
-      <c r="E247" s="11">
+      <c r="E247" s="12">
         <v>110.0</v>
       </c>
-      <c r="F247" s="11">
+      <c r="F247" s="12">
         <v>6.0</v>
       </c>
-      <c r="G247" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H247" s="11" t="s">
+      <c r="G247" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H247" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I247" s="11">
+      <c r="I247" s="12">
         <v>0.21</v>
       </c>
-      <c r="J247" s="11">
+      <c r="J247" s="12">
         <v>0.11</v>
       </c>
-      <c r="K247" s="11" t="s">
+      <c r="K247" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L247" s="1"/>
@@ -13605,38 +13476,38 @@
       <c r="Z247" s="1"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="10">
+      <c r="A248" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B248" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C248" s="11">
+      <c r="B248" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C248" s="12">
         <v>0.619</v>
       </c>
-      <c r="D248" s="11">
+      <c r="D248" s="12">
         <v>-122.0</v>
       </c>
-      <c r="E248" s="11">
+      <c r="E248" s="12">
         <v>-105.0</v>
       </c>
-      <c r="F248" s="11">
+      <c r="F248" s="12">
         <v>17.0</v>
       </c>
-      <c r="G248" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H248" s="11" t="s">
+      <c r="G248" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H248" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I248" s="11">
+      <c r="I248" s="12">
         <v>0.19</v>
       </c>
-      <c r="J248" s="11">
+      <c r="J248" s="12">
         <v>0.09</v>
       </c>
-      <c r="K248" s="11" t="s">
-        <v>116</v>
+      <c r="K248" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
@@ -13655,38 +13526,32 @@
       <c r="Z248" s="1"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="10">
+      <c r="A249" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B249" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C249" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="D249" s="11">
-        <v>-186.0</v>
-      </c>
-      <c r="E249" s="11">
+      <c r="B249" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="12">
         <v>-105.0</v>
       </c>
-      <c r="F249" s="11">
-        <v>81.0</v>
-      </c>
-      <c r="G249" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H249" s="11" t="s">
+      <c r="F249" s="1"/>
+      <c r="G249" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H249" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I249" s="11">
+      <c r="I249" s="12">
         <v>0.0</v>
       </c>
-      <c r="J249" s="11">
+      <c r="J249" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K249" s="11" t="s">
-        <v>221</v>
+      <c r="K249" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
@@ -13705,38 +13570,38 @@
       <c r="Z249" s="1"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="10">
+      <c r="A250" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B250" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C250" s="11">
+      <c r="B250" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C250" s="12">
         <v>0.6548</v>
       </c>
-      <c r="D250" s="11">
+      <c r="D250" s="12">
         <v>-141.0</v>
       </c>
-      <c r="E250" s="11">
+      <c r="E250" s="12">
         <v>-120.0</v>
       </c>
-      <c r="F250" s="11">
+      <c r="F250" s="12">
         <v>21.0</v>
       </c>
-      <c r="G250" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H250" s="11" t="s">
+      <c r="G250" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H250" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I250" s="11">
+      <c r="I250" s="12">
         <v>0.0</v>
       </c>
-      <c r="J250" s="11">
+      <c r="J250" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K250" s="11" t="s">
-        <v>116</v>
+      <c r="K250" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
@@ -13755,38 +13620,32 @@
       <c r="Z250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="10">
+      <c r="A251" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B251" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C251" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="D251" s="11">
-        <v>-122.0</v>
-      </c>
-      <c r="E251" s="11">
+      <c r="B251" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="12">
         <v>-101.0</v>
       </c>
-      <c r="F251" s="11">
-        <v>21.0</v>
-      </c>
-      <c r="G251" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H251" s="11" t="s">
+      <c r="F251" s="1"/>
+      <c r="G251" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H251" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I251" s="11">
+      <c r="I251" s="12">
         <v>0.0</v>
       </c>
-      <c r="J251" s="11">
+      <c r="J251" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K251" s="11" t="s">
-        <v>221</v>
+      <c r="K251" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
@@ -13805,38 +13664,38 @@
       <c r="Z251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="10">
+      <c r="A252" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C252" s="11">
+      <c r="B252" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C252" s="12">
         <v>0.5908</v>
       </c>
-      <c r="D252" s="11">
+      <c r="D252" s="12">
         <v>-109.0</v>
       </c>
-      <c r="E252" s="11">
+      <c r="E252" s="12">
         <v>-105.0</v>
       </c>
-      <c r="F252" s="11">
+      <c r="F252" s="12">
         <v>4.0</v>
       </c>
-      <c r="G252" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H252" s="11" t="s">
+      <c r="G252" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H252" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I252" s="11">
+      <c r="I252" s="12">
         <v>0.0</v>
       </c>
-      <c r="J252" s="11">
+      <c r="J252" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K252" s="11" t="s">
-        <v>116</v>
+      <c r="K252" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
@@ -13855,38 +13714,38 @@
       <c r="Z252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="10">
+      <c r="A253" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B253" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C253" s="11">
+      <c r="B253" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C253" s="12">
         <v>0.642</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D253" s="12">
         <v>-134.0</v>
       </c>
-      <c r="E253" s="11">
+      <c r="E253" s="12">
         <v>-108.0</v>
       </c>
-      <c r="F253" s="11">
+      <c r="F253" s="12">
         <v>26.0</v>
       </c>
-      <c r="G253" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H253" s="11" t="s">
+      <c r="G253" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H253" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I253" s="11">
+      <c r="I253" s="12">
         <v>0.19</v>
       </c>
-      <c r="J253" s="11">
+      <c r="J253" s="12">
         <v>0.09</v>
       </c>
-      <c r="K253" s="11" t="s">
-        <v>116</v>
+      <c r="K253" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
@@ -13905,38 +13764,32 @@
       <c r="Z253" s="1"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="10">
+      <c r="A254" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B254" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C254" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="D254" s="11">
-        <v>-285.0</v>
-      </c>
-      <c r="E254" s="11">
+      <c r="B254" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="12">
         <v>-120.0</v>
       </c>
-      <c r="F254" s="11">
-        <v>165.0</v>
-      </c>
-      <c r="G254" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H254" s="11" t="s">
+      <c r="F254" s="1"/>
+      <c r="G254" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H254" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I254" s="11">
+      <c r="I254" s="12">
         <v>0.18</v>
       </c>
-      <c r="J254" s="11">
+      <c r="J254" s="12">
         <v>0.08</v>
       </c>
-      <c r="K254" s="11" t="s">
-        <v>221</v>
+      <c r="K254" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
@@ -13955,38 +13808,32 @@
       <c r="Z254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="10">
+      <c r="A255" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B255" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C255" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D255" s="11">
-        <v>-300.0</v>
-      </c>
-      <c r="E255" s="11">
+      <c r="B255" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="12">
         <v>108.0</v>
       </c>
-      <c r="F255" s="11">
-        <v>408.0</v>
-      </c>
-      <c r="G255" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H255" s="11" t="s">
+      <c r="F255" s="1"/>
+      <c r="G255" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H255" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I255" s="11">
+      <c r="I255" s="12">
         <v>0.0</v>
       </c>
-      <c r="J255" s="11">
+      <c r="J255" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K255" s="11" t="s">
-        <v>221</v>
+      <c r="K255" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
@@ -14005,38 +13852,32 @@
       <c r="Z255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="10">
+      <c r="A256" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B256" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C256" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="D256" s="11">
-        <v>-163.0</v>
-      </c>
-      <c r="E256" s="11">
+      <c r="B256" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="12">
         <v>-140.0</v>
       </c>
-      <c r="F256" s="11">
-        <v>23.0</v>
-      </c>
-      <c r="G256" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H256" s="11" t="s">
+      <c r="F256" s="1"/>
+      <c r="G256" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H256" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I256" s="11">
+      <c r="I256" s="12">
         <v>0.17</v>
       </c>
-      <c r="J256" s="11">
+      <c r="J256" s="12">
         <v>0.07</v>
       </c>
-      <c r="K256" s="11" t="s">
-        <v>221</v>
+      <c r="K256" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
@@ -14055,38 +13896,32 @@
       <c r="Z256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="10">
+      <c r="A257" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C257" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="D257" s="11">
-        <v>-285.0</v>
-      </c>
-      <c r="E257" s="11">
+      <c r="B257" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="12">
         <v>-118.0</v>
       </c>
-      <c r="F257" s="11">
-        <v>167.0</v>
-      </c>
-      <c r="G257" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H257" s="11" t="s">
+      <c r="F257" s="1"/>
+      <c r="G257" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H257" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I257" s="11">
+      <c r="I257" s="12">
         <v>0.0</v>
       </c>
-      <c r="J257" s="11">
+      <c r="J257" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K257" s="11" t="s">
-        <v>221</v>
+      <c r="K257" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
@@ -14105,38 +13940,38 @@
       <c r="Z257" s="1"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="10">
+      <c r="A258" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C258" s="11">
+      <c r="B258" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C258" s="12">
         <v>0.6544</v>
       </c>
-      <c r="D258" s="11">
+      <c r="D258" s="12">
         <v>-141.0</v>
       </c>
-      <c r="E258" s="11">
+      <c r="E258" s="12">
         <v>-108.0</v>
       </c>
-      <c r="F258" s="11">
+      <c r="F258" s="12">
         <v>33.0</v>
       </c>
-      <c r="G258" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H258" s="11" t="s">
+      <c r="G258" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H258" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I258" s="11">
+      <c r="I258" s="12">
         <v>0.0</v>
       </c>
-      <c r="J258" s="11">
+      <c r="J258" s="12">
         <v>-0.1</v>
       </c>
-      <c r="K258" s="11" t="s">
-        <v>116</v>
+      <c r="K258" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
@@ -14155,38 +13990,38 @@
       <c r="Z258" s="1"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="10">
+      <c r="A259" s="11">
         <v>46050.0</v>
       </c>
-      <c r="B259" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C259" s="11">
+      <c r="B259" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C259" s="12">
         <v>0.678</v>
       </c>
-      <c r="D259" s="11">
+      <c r="D259" s="12">
         <v>-155.0</v>
       </c>
-      <c r="E259" s="11">
+      <c r="E259" s="12">
         <v>-130.0</v>
       </c>
-      <c r="F259" s="11">
+      <c r="F259" s="12">
         <v>25.0</v>
       </c>
-      <c r="G259" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H259" s="11" t="s">
+      <c r="G259" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H259" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I259" s="11">
+      <c r="I259" s="12">
         <v>0.17</v>
       </c>
-      <c r="J259" s="11">
+      <c r="J259" s="12">
         <v>0.07</v>
       </c>
-      <c r="K259" s="11" t="s">
-        <v>116</v>
+      <c r="K259" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
@@ -14205,17 +14040,39 @@
       <c r="Z259" s="1"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
+      <c r="A260" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C260" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="D260" s="12">
+        <v>-128.0</v>
+      </c>
+      <c r="E260" s="12">
+        <v>-108.0</v>
+      </c>
+      <c r="F260" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="G260" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I260" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J260" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K260" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
@@ -14233,17 +14090,39 @@
       <c r="Z260" s="1"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
-      <c r="J261" s="1"/>
-      <c r="K261" s="1"/>
+      <c r="A261" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C261" s="12">
+        <v>0.6853</v>
+      </c>
+      <c r="D261" s="12">
+        <v>-141.0</v>
+      </c>
+      <c r="E261" s="12">
+        <v>-110.0</v>
+      </c>
+      <c r="F261" s="12">
+        <v>31.0</v>
+      </c>
+      <c r="G261" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I261" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J261" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K261" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -14261,17 +14140,39 @@
       <c r="Z261" s="1"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
-      <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
-      <c r="K262" s="1"/>
+      <c r="A262" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C262" s="12">
+        <v>0.6159</v>
+      </c>
+      <c r="D262" s="12">
+        <v>115.0</v>
+      </c>
+      <c r="E262" s="12">
+        <v>124.0</v>
+      </c>
+      <c r="F262" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="G262" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H262" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I262" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="J262" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="K262" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
@@ -14289,17 +14190,39 @@
       <c r="Z262" s="1"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-      <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
-      <c r="K263" s="1"/>
+      <c r="A263" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C263" s="12">
+        <v>0.9391</v>
+      </c>
+      <c r="D263" s="12">
+        <v>-374.0</v>
+      </c>
+      <c r="E263" s="12">
+        <v>-130.0</v>
+      </c>
+      <c r="F263" s="12">
+        <v>244.0</v>
+      </c>
+      <c r="G263" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H263" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I263" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J263" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K263" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
@@ -14317,17 +14240,39 @@
       <c r="Z263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
+      <c r="A264" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C264" s="12">
+        <v>0.6095</v>
+      </c>
+      <c r="D264" s="12">
+        <v>-117.0</v>
+      </c>
+      <c r="E264" s="12">
+        <v>-110.0</v>
+      </c>
+      <c r="F264" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="G264" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H264" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I264" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J264" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K264" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -14345,17 +14290,39 @@
       <c r="Z264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
-      <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
+      <c r="A265" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C265" s="12">
+        <v>0.6825</v>
+      </c>
+      <c r="D265" s="12">
+        <v>-140.0</v>
+      </c>
+      <c r="E265" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F265" s="12">
+        <v>240.0</v>
+      </c>
+      <c r="G265" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H265" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I265" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J265" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K265" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
@@ -14373,17 +14340,39 @@
       <c r="Z265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-      <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
-      <c r="I266" s="1"/>
-      <c r="J266" s="1"/>
-      <c r="K266" s="1"/>
+      <c r="A266" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C266" s="12">
+        <v>0.574</v>
+      </c>
+      <c r="D266" s="12">
+        <v>-109.0</v>
+      </c>
+      <c r="E266" s="12">
+        <v>-108.0</v>
+      </c>
+      <c r="F266" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G266" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H266" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I266" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J266" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K266" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
@@ -14401,17 +14390,39 @@
       <c r="Z266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
+      <c r="A267" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C267" s="12">
+        <v>0.6105</v>
+      </c>
+      <c r="D267" s="12">
+        <v>-125.0</v>
+      </c>
+      <c r="E267" s="12">
+        <v>-110.0</v>
+      </c>
+      <c r="F267" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="G267" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H267" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I267" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="J267" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="K267" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -14429,17 +14440,39 @@
       <c r="Z267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
+      <c r="A268" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C268" s="12">
+        <v>0.6363</v>
+      </c>
+      <c r="D268" s="12">
+        <v>-284.0</v>
+      </c>
+      <c r="E268" s="12">
+        <v>-218.0</v>
+      </c>
+      <c r="F268" s="12">
+        <v>66.0</v>
+      </c>
+      <c r="G268" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H268" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I268" s="12">
+        <v>0.14</v>
+      </c>
+      <c r="J268" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K268" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -14457,17 +14490,39 @@
       <c r="Z268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
+      <c r="A269" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C269" s="12">
+        <v>0.6301</v>
+      </c>
+      <c r="D269" s="12">
+        <v>-276.0</v>
+      </c>
+      <c r="E269" s="12">
+        <v>-238.0</v>
+      </c>
+      <c r="F269" s="12">
+        <v>38.0</v>
+      </c>
+      <c r="G269" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I269" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J269" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K269" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -14485,17 +14540,39 @@
       <c r="Z269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
-      <c r="K270" s="1"/>
+      <c r="A270" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C270" s="12">
+        <v>0.6395</v>
+      </c>
+      <c r="D270" s="12">
+        <v>-306.0</v>
+      </c>
+      <c r="E270" s="12">
+        <v>-225.0</v>
+      </c>
+      <c r="F270" s="12">
+        <v>81.0</v>
+      </c>
+      <c r="G270" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H270" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I270" s="12">
+        <v>0.14</v>
+      </c>
+      <c r="J270" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K270" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
@@ -14513,17 +14590,39 @@
       <c r="Z270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-      <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
+      <c r="A271" s="11">
+        <v>46051.0</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C271" s="12">
+        <v>0.6009</v>
+      </c>
+      <c r="D271" s="12">
+        <v>-210.0</v>
+      </c>
+      <c r="E271" s="12">
+        <v>-205.0</v>
+      </c>
+      <c r="F271" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="G271" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H271" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I271" s="12">
+        <v>0.14</v>
+      </c>
+      <c r="J271" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K271" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
@@ -17956,34 +18055,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
-      <c r="H394" s="1"/>
-      <c r="I394" s="1"/>
-      <c r="J394" s="1"/>
-      <c r="K394" s="1"/>
-      <c r="L394" s="1"/>
-      <c r="M394" s="1"/>
-      <c r="N394" s="1"/>
-      <c r="O394" s="1"/>
-      <c r="P394" s="1"/>
-      <c r="Q394" s="1"/>
-      <c r="R394" s="1"/>
-      <c r="S394" s="1"/>
-      <c r="T394" s="1"/>
-      <c r="U394" s="1"/>
-      <c r="V394" s="1"/>
-      <c r="W394" s="1"/>
-      <c r="X394" s="1"/>
-      <c r="Y394" s="1"/>
-      <c r="Z394" s="1"/>
-    </row>
+    <row r="394" ht="15.75" customHeight="1"/>
     <row r="395" ht="15.75" customHeight="1"/>
     <row r="396" ht="15.75" customHeight="1"/>
     <row r="397" ht="15.75" customHeight="1"/>
@@ -18563,13 +18635,27 @@
     <row r="971" ht="15.75" customHeight="1"/>
     <row r="972" ht="15.75" customHeight="1"/>
     <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="C974" s="13"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="C975" s="13"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="C976" s="13"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="C977" s="13"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="C978" s="13"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="C979" s="13"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="C980" s="13"/>
+    </row>
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
@@ -18589,9 +18675,8 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$K$1:$K$974"/>
+  <autoFilter ref="$K$1:$K$973"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/testing/Bet_Tracker.xlsx
+++ b/testing/Bet_Tracker.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$K$1:$K$973</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$K$1:$K$972</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="wx7SIV2+c12e7QDZtedlnI1Yx0uIo9d9C6AGhOa9/1I="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xuvfhppDs8dzmE4Zm07r4iDLJv/+YvZfHJs0JucZRMk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="306">
   <si>
     <t>Date</t>
   </si>
@@ -900,6 +900,42 @@
   </si>
   <si>
     <t>VAN Canucks</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>Saint Peters</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Quinnipiac</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>Saint Louis</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>CHI Blackhawks</t>
+  </si>
+  <si>
+    <t>SAC Kings @ BOS Celtics - Over 220.5 - Total Alternate</t>
   </si>
 </sst>
 </file>
@@ -14640,17 +14676,39 @@
       <c r="Z271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
+      <c r="A272" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C272" s="12">
+        <v>0.635</v>
+      </c>
+      <c r="D272" s="12">
+        <v>-125.0</v>
+      </c>
+      <c r="E272" s="12">
+        <v>-108.0</v>
+      </c>
+      <c r="F272" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="G272" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H272" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I272" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J272" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K272" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
@@ -14668,17 +14726,39 @@
       <c r="Z272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
-      <c r="I273" s="1"/>
-      <c r="J273" s="1"/>
-      <c r="K273" s="1"/>
+      <c r="A273" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C273" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="D273" s="12">
+        <v>-133.0</v>
+      </c>
+      <c r="E273" s="12">
+        <v>-105.0</v>
+      </c>
+      <c r="F273" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="G273" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H273" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I273" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J273" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K273" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
@@ -14696,17 +14776,39 @@
       <c r="Z273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
-      <c r="J274" s="1"/>
-      <c r="K274" s="1"/>
+      <c r="A274" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C274" s="12">
+        <v>0.635</v>
+      </c>
+      <c r="D274" s="12">
+        <v>-135.0</v>
+      </c>
+      <c r="E274" s="12">
+        <v>-102.0</v>
+      </c>
+      <c r="F274" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="G274" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H274" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I274" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="J274" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="K274" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -14724,17 +14826,39 @@
       <c r="Z274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
-      <c r="I275" s="1"/>
-      <c r="J275" s="1"/>
-      <c r="K275" s="1"/>
+      <c r="A275" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C275" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="D275" s="12">
+        <v>-147.0</v>
+      </c>
+      <c r="E275" s="12">
+        <v>-118.0</v>
+      </c>
+      <c r="F275" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="G275" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H275" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I275" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="J275" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K275" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
@@ -14752,17 +14876,39 @@
       <c r="Z275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
-      <c r="I276" s="1"/>
-      <c r="J276" s="1"/>
-      <c r="K276" s="1"/>
+      <c r="A276" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C276" s="12">
+        <v>0.57</v>
+      </c>
+      <c r="D276" s="12">
+        <v>104.0</v>
+      </c>
+      <c r="E276" s="12">
+        <v>107.0</v>
+      </c>
+      <c r="F276" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="G276" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H276" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I276" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J276" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K276" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
@@ -14780,17 +14926,39 @@
       <c r="Z276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
-      <c r="I277" s="1"/>
-      <c r="J277" s="1"/>
-      <c r="K277" s="1"/>
+      <c r="A277" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C277" s="12">
+        <v>0.645</v>
+      </c>
+      <c r="D277" s="12">
+        <v>-141.0</v>
+      </c>
+      <c r="E277" s="12">
+        <v>109.0</v>
+      </c>
+      <c r="F277" s="12">
+        <v>250.0</v>
+      </c>
+      <c r="G277" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H277" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I277" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J277" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K277" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
@@ -14808,17 +14976,39 @@
       <c r="Z277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-      <c r="I278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
+      <c r="A278" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C278" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="D278" s="12">
+        <v>-163.0</v>
+      </c>
+      <c r="E278" s="12">
+        <v>-105.0</v>
+      </c>
+      <c r="F278" s="12">
+        <v>58.0</v>
+      </c>
+      <c r="G278" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H278" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I278" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J278" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K278" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
@@ -14836,17 +15026,39 @@
       <c r="Z278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
-      <c r="I279" s="1"/>
-      <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
+      <c r="A279" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C279" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="D279" s="12">
+        <v>-104.0</v>
+      </c>
+      <c r="E279" s="12">
+        <v>110.0</v>
+      </c>
+      <c r="F279" s="12">
+        <v>214.0</v>
+      </c>
+      <c r="G279" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H279" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I279" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J279" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K279" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -14864,17 +15076,39 @@
       <c r="Z279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
-      <c r="J280" s="1"/>
-      <c r="K280" s="1"/>
+      <c r="A280" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C280" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="D280" s="12">
+        <v>-108.0</v>
+      </c>
+      <c r="E280" s="12">
+        <v>-101.0</v>
+      </c>
+      <c r="F280" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="G280" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H280" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I280" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="J280" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="K280" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
@@ -14892,17 +15126,39 @@
       <c r="Z280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-      <c r="I281" s="1"/>
-      <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
+      <c r="A281" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C281" s="12">
+        <v>0.555</v>
+      </c>
+      <c r="D281" s="12">
+        <v>111.0</v>
+      </c>
+      <c r="E281" s="12">
+        <v>116.0</v>
+      </c>
+      <c r="F281" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="G281" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H281" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I281" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="J281" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="K281" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -14920,17 +15176,39 @@
       <c r="Z281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
-      <c r="I282" s="1"/>
-      <c r="J282" s="1"/>
-      <c r="K282" s="1"/>
+      <c r="A282" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C282" s="12">
+        <v>0.573</v>
+      </c>
+      <c r="D282" s="12">
+        <v>-161.0</v>
+      </c>
+      <c r="E282" s="12">
+        <v>-192.0</v>
+      </c>
+      <c r="F282" s="12">
+        <v>-31.0</v>
+      </c>
+      <c r="G282" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H282" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I282" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J282" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K282" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
@@ -14948,17 +15226,39 @@
       <c r="Z282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-      <c r="I283" s="1"/>
-      <c r="J283" s="1"/>
-      <c r="K283" s="1"/>
+      <c r="A283" s="11">
+        <v>46052.0</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C283" s="12">
+        <v>0.5717</v>
+      </c>
+      <c r="D283" s="12">
+        <v>-108.0</v>
+      </c>
+      <c r="E283" s="12">
+        <v>116.0</v>
+      </c>
+      <c r="F283" s="12">
+        <v>224.0</v>
+      </c>
+      <c r="G283" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H283" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I283" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J283" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K283" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
@@ -18027,34 +18327,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="1"/>
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-      <c r="D393" s="1"/>
-      <c r="E393" s="1"/>
-      <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
-      <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1"/>
-      <c r="M393" s="1"/>
-      <c r="N393" s="1"/>
-      <c r="O393" s="1"/>
-      <c r="P393" s="1"/>
-      <c r="Q393" s="1"/>
-      <c r="R393" s="1"/>
-      <c r="S393" s="1"/>
-      <c r="T393" s="1"/>
-      <c r="U393" s="1"/>
-      <c r="V393" s="1"/>
-      <c r="W393" s="1"/>
-      <c r="X393" s="1"/>
-      <c r="Y393" s="1"/>
-      <c r="Z393" s="1"/>
-    </row>
+    <row r="393" ht="15.75" customHeight="1"/>
     <row r="394" ht="15.75" customHeight="1"/>
     <row r="395" ht="15.75" customHeight="1"/>
     <row r="396" ht="15.75" customHeight="1"/>
@@ -18634,7 +18907,9 @@
     <row r="970" ht="15.75" customHeight="1"/>
     <row r="971" ht="15.75" customHeight="1"/>
     <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="C973" s="13"/>
+    </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="C974" s="13"/>
     </row>
@@ -18653,9 +18928,7 @@
     <row r="979" ht="15.75" customHeight="1">
       <c r="C979" s="13"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="C980" s="13"/>
-    </row>
+    <row r="980" ht="15.75" customHeight="1"/>
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
@@ -18674,9 +18947,8 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$K$1:$K$973"/>
+  <autoFilter ref="$K$1:$K$972"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/testing/Bet_Tracker.xlsx
+++ b/testing/Bet_Tracker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="316">
   <si>
     <t>Date</t>
   </si>
@@ -936,6 +936,36 @@
   </si>
   <si>
     <t>SAC Kings @ BOS Celtics - Over 220.5 - Total Alternate</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>MEM Grizzlies</t>
+  </si>
+  <si>
+    <t>IND Pacers</t>
+  </si>
+  <si>
+    <t>NO Pelicans</t>
+  </si>
+  <si>
+    <t>DAL Mavericks</t>
+  </si>
+  <si>
+    <t>CHI Bulls</t>
+  </si>
+  <si>
+    <t>Under NJ Devils @ OTT Senators - Under 5.5 - Total</t>
+  </si>
+  <si>
+    <t>Under MIN Wild @ EDM Oilers - Under 6.5 - Total</t>
+  </si>
+  <si>
+    <t>Under MTL Canadiens @ BUF Sabres - Under 6.5 - Total</t>
+  </si>
+  <si>
+    <t>Under TOR Maple Leafs @ VAN Canucks - Under 6.5 - Total</t>
   </si>
 </sst>
 </file>
@@ -15276,17 +15306,39 @@
       <c r="Z283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
+      <c r="A284" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C284" s="12">
+        <v>0.651321</v>
+      </c>
+      <c r="D284" s="12">
+        <v>-145.0</v>
+      </c>
+      <c r="E284" s="12">
+        <v>-112.0</v>
+      </c>
+      <c r="F284" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="G284" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H284" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I284" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="J284" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K284" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
@@ -15304,17 +15356,39 @@
       <c r="Z284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
+      <c r="A285" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C285" s="12">
+        <v>0.544236</v>
+      </c>
+      <c r="D285" s="12">
+        <v>-133.0</v>
+      </c>
+      <c r="E285" s="12">
+        <v>111.0</v>
+      </c>
+      <c r="F285" s="12">
+        <v>244.0</v>
+      </c>
+      <c r="G285" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H285" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I285" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J285" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K285" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
@@ -15332,17 +15406,39 @@
       <c r="Z285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="1"/>
-      <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
+      <c r="A286" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C286" s="12">
+        <v>0.522152</v>
+      </c>
+      <c r="D286" s="12">
+        <v>-121.0</v>
+      </c>
+      <c r="E286" s="12">
+        <v>-110.0</v>
+      </c>
+      <c r="F286" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="G286" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H286" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I286" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="J286" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="K286" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -15360,17 +15456,39 @@
       <c r="Z286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="I287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
+      <c r="A287" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C287" s="12">
+        <v>0.620028</v>
+      </c>
+      <c r="D287" s="12">
+        <v>-185.0</v>
+      </c>
+      <c r="E287" s="12">
+        <v>-155.0</v>
+      </c>
+      <c r="F287" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="G287" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H287" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I287" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J287" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K287" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
@@ -15388,17 +15506,39 @@
       <c r="Z287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
+      <c r="A288" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C288" s="12">
+        <v>0.566184</v>
+      </c>
+      <c r="D288" s="12">
+        <v>-146.0</v>
+      </c>
+      <c r="E288" s="12">
+        <v>-105.0</v>
+      </c>
+      <c r="F288" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="G288" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H288" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I288" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="J288" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="K288" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -15416,17 +15556,39 @@
       <c r="Z288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
-      <c r="G289" s="1"/>
-      <c r="H289" s="1"/>
-      <c r="I289" s="1"/>
-      <c r="J289" s="1"/>
-      <c r="K289" s="1"/>
+      <c r="A289" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C289" s="12">
+        <v>0.58793</v>
+      </c>
+      <c r="D289" s="12">
+        <v>-160.0</v>
+      </c>
+      <c r="E289" s="12">
+        <v>103.0</v>
+      </c>
+      <c r="F289" s="12">
+        <v>263.0</v>
+      </c>
+      <c r="G289" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H289" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I289" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J289" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K289" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
@@ -15444,17 +15606,39 @@
       <c r="Z289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-      <c r="I290" s="1"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
+      <c r="A290" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C290" s="12">
+        <v>0.5854</v>
+      </c>
+      <c r="D290" s="12">
+        <v>-106.0</v>
+      </c>
+      <c r="E290" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F290" s="12">
+        <v>206.0</v>
+      </c>
+      <c r="G290" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H290" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I290" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J290" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K290" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
@@ -15472,17 +15656,39 @@
       <c r="Z290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
-      <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
+      <c r="A291" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C291" s="12">
+        <v>0.442</v>
+      </c>
+      <c r="D291" s="12">
+        <v>188.0</v>
+      </c>
+      <c r="E291" s="12">
+        <v>170.0</v>
+      </c>
+      <c r="F291" s="12">
+        <v>-18.0</v>
+      </c>
+      <c r="G291" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H291" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I291" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J291" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K291" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
@@ -15500,17 +15706,39 @@
       <c r="Z291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
-      <c r="G292" s="1"/>
-      <c r="H292" s="1"/>
-      <c r="I292" s="1"/>
-      <c r="J292" s="1"/>
-      <c r="K292" s="1"/>
+      <c r="A292" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C292" s="12">
+        <v>0.5694</v>
+      </c>
+      <c r="D292" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="E292" s="12">
+        <v>102.0</v>
+      </c>
+      <c r="F292" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G292" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H292" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I292" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J292" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K292" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
@@ -15528,17 +15756,39 @@
       <c r="Z292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
+      <c r="A293" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C293" s="12">
+        <v>0.5423</v>
+      </c>
+      <c r="D293" s="12">
+        <v>112.0</v>
+      </c>
+      <c r="E293" s="12">
+        <v>102.0</v>
+      </c>
+      <c r="F293" s="12">
+        <v>-10.0</v>
+      </c>
+      <c r="G293" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H293" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I293" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J293" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K293" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
@@ -15556,17 +15806,39 @@
       <c r="Z293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
+      <c r="A294" s="11">
+        <v>46053.0</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C294" s="12">
+        <v>0.5822</v>
+      </c>
+      <c r="D294" s="12">
+        <v>-105.0</v>
+      </c>
+      <c r="E294" s="12">
+        <v>-102.0</v>
+      </c>
+      <c r="F294" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="G294" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H294" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I294" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="J294" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="K294" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
